--- a/2019_Turkey.xlsx
+++ b/2019_Turkey.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="164011"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denizdereli\Desktop\Projects\Benford\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\denizdereli\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -63792,7 +63792,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D515"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G3" sqref="G3"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -63826,7 +63828,7 @@
         <v>19</v>
       </c>
       <c r="D2">
-        <v>242482</v>
+        <v>242483</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
